--- a/Time-Line.xlsx
+++ b/Time-Line.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="19">
   <si>
     <t xml:space="preserve">Inspiration </t>
   </si>
@@ -52,10 +52,19 @@
     <t>Creation des serveur</t>
   </si>
   <si>
+    <t>BackEnd</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control </t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
     <t>Book</t>
-  </si>
-  <si>
-    <t>BackEnd</t>
   </si>
   <si>
     <t>User</t>
@@ -68,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -76,6 +85,7 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -88,16 +98,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="14.0"/>
       <color rgb="FF4A86E8"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +130,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
@@ -141,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -161,19 +185,31 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" textRotation="180"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" textRotation="90"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -441,7 +477,7 @@
       <c r="A4" s="7">
         <v>44414.0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -456,7 +492,7 @@
       <c r="A5" s="7">
         <v>44415.0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -471,7 +507,7 @@
       <c r="A6" s="7">
         <v>44416.0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -531,7 +567,7 @@
       <c r="A10" s="7">
         <v>44420.0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -546,212 +582,372 @@
       <c r="A11" s="8">
         <v>44421.0</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="G11" s="9"/>
       <c r="J11" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
         <v>44422.0</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>13</v>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8">
         <v>44423.0</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>13</v>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8">
         <v>44424.0</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8">
         <v>44425.0</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>13</v>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8">
         <v>44426.0</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>13</v>
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8">
         <v>44427.0</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>13</v>
+      <c r="B17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8">
         <v>44428.0</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>13</v>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8">
         <v>44429.0</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>15</v>
+      <c r="D19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8">
         <v>44430.0</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>15</v>
+      <c r="D20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8">
         <v>44431.0</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>15</v>
+      <c r="D21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8">
         <v>44432.0</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>15</v>
+      <c r="D22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8">
         <v>44433.0</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>15</v>
+      <c r="D23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8">
         <v>44434.0</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>15</v>
+      <c r="D24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8">
         <v>44435.0</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>15</v>
+      <c r="D25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8">
         <v>44436.0</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>15</v>
+      <c r="D26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8">
         <v>44437.0</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>15</v>
+      <c r="D27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8">
         <v>44438.0</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>15</v>
+      <c r="D28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8">
         <v>44439.0</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>15</v>
+      <c r="D29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
